--- a/Documentazione generale/Change Request CodeSmell/Documentazione Testing/Test Strategy.xlsx
+++ b/Documentazione generale/Change Request CodeSmell/Documentazione Testing/Test Strategy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Evoluzione-cASpER\Documentazione generale\Change Request CodeSmell\Docuemtazione Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Evoluzione-cASpER\Documentazione generale\Change Request CodeSmell\Documentazione Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Test Activities</t>
   </si>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>Report Unit Test</t>
-  </si>
-  <si>
-    <t>Stesura Integration Test Plan</t>
-  </si>
-  <si>
-    <t>Selezione Test Case Integratio Test</t>
-  </si>
-  <si>
-    <t>Implementazione ed esecuzione Integration Test</t>
-  </si>
-  <si>
-    <t>Report Integration Test</t>
   </si>
 </sst>
 </file>
@@ -273,21 +261,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,11 +268,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,21 +585,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,13 +721,13 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3"/>
@@ -755,7 +743,7 @@
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
@@ -769,7 +757,7 @@
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="3"/>
@@ -781,7 +769,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="8"/>
@@ -792,69 +780,15 @@
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
